--- a/מטלה 1/גרף פונקציה שרידות-שעות סגירה.xlsx
+++ b/מטלה 1/גרף פונקציה שרידות-שעות סגירה.xlsx
@@ -100,7 +100,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>ממוצע ניצולים כפונקציה של שעת הסגירה</a:t>
+              <a:t>ממוצע ניצולים כפונקציה של מס' שעות עבודה</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -146,28 +146,102 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7607599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5971000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4335000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3516000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>survivors</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -215,15 +289,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110838528"/>
-        <c:axId val="110828544"/>
+        <c:axId val="153411968"/>
+        <c:axId val="153413888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110838528"/>
+        <c:axId val="153411968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="17"/>
-          <c:min val="9"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -238,8 +312,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>שעת סגירה</a:t>
+                  <a:t>מספר</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="he-IL" baseline="0"/>
+                  <a:t> שעות עבודה</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -250,13 +329,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110828544"/>
+        <c:crossAx val="153413888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110828544"/>
+        <c:axId val="153413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110838528"/>
+        <c:crossAx val="153411968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -635,7 +714,7 @@
   <dimension ref="F2:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +732,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.2">
@@ -661,7 +740,7 @@
         <v>1.8425</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.2">
@@ -669,7 +748,7 @@
         <v>2.7607599999999999</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.2">
@@ -677,7 +756,7 @@
         <v>3.6789000000000001</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
@@ -685,7 +764,7 @@
         <v>4.5971000000000002</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
@@ -693,7 +772,7 @@
         <v>5.5152999999999999</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
@@ -701,7 +780,7 @@
         <v>6.4335000000000004</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
@@ -709,7 +788,7 @@
         <v>7.3516000000000004</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/מטלה 1/גרף פונקציה שרידות-שעות סגירה.xlsx
+++ b/מטלה 1/גרף פונקציה שרידות-שעות סגירה.xlsx
@@ -58,9 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,11 +294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153411968"/>
-        <c:axId val="153413888"/>
+        <c:axId val="180374912"/>
+        <c:axId val="180413952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153411968"/>
+        <c:axId val="180374912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -329,13 +334,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153413888"/>
+        <c:crossAx val="180413952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153413888"/>
+        <c:axId val="180413952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153411968"/>
+        <c:crossAx val="180374912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -714,80 +719,84 @@
   <dimension ref="F2:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F2" sqref="F2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1.8425</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2.7607599999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3.6789000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F7">
+      <c r="F7" s="1">
         <v>4.5971000000000002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>5.5152999999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>6.4335000000000004</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>7.3516000000000004</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
     </row>
